--- a/medicine/Handicap/Rain_Man/Rain_Man.xlsx
+++ b/medicine/Handicap/Rain_Man/Rain_Man.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Rain Man (ou L'Homme de la pluie au Québec) est un film américain de Barry Levinson, sorti en 1988.
 Le film raconte l'histoire de Charlie Babbitt (Tom Cruise), un jeune et égocentrique concessionnaire de voitures de luxe qui découvre que son père défunt, dont il s'était éloigné, a légué la quasi-totalité de sa fortune à Raymond Babbitt (Dustin Hoffman), un autiste savant et le frère de Charlie, dont celui-ci ignorait jusqu’alors l'existence. Débute alors un road movie entre les deux personnages que tout semble éloigner, au cours duquel ils apprendront à se connaître.
@@ -514,7 +526,9 @@
           <t>Synopsis</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Charlie Babbitt, un revendeur de voitures de luxe basé à Los Angeles, est un jeune homme rude et égocentrique. Alors qu'il est en proie à des difficultés financières liées à ses activités, il apprend le décès de son père avec qui il était en froid depuis ses 16 ans.
 Comptant beaucoup sur l'héritage laissé par son défunt père pour se remettre à flot, Charlie, alors qu'il écoute la lecture du testament, apprend qu'il ne reçoit en héritage que la vieille Buick Roadmaster décapotable de son père, ainsi que ses rosiers primés. La majorité de la fortune du défunt, estimée à 3 millions de dollars, est léguée à un administrateur pour un bénéficiaire anonyme qui s’avère être (après une courte enquête menée par Charlie) une institution psychiatrique de Cincinnati.
@@ -553,7 +567,9 @@
           <t>Fiche technique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Titre original et français : Rain Man
 Titre québécois : L'Homme de la pluie
@@ -573,7 +589,7 @@
 Format : couleurs - 1,85:1 - 35 mm - Dolby Surround
 Genre : comédie dramatique, 'road movie
 Durée : 133 minutes
-Dates de sortie[1] :
+Dates de sortie :
 États-Unis : 12 décembre 1988 (première à New York), 16 décembre 1988 (sortie nationale)
 France : 15 mars 1989</t>
         </is>
@@ -603,7 +619,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Dustin Hoffman (VF : Dominique Collignon-Maurin) : Raymond « Ray » Babbitt
 Tom Cruise (VF : Patrick Poivey) : Charlie Babbitt
@@ -611,13 +629,13 @@
 Jerry Molen (VF : William Sabatier) : le docteur Bruner
 Jack Murdock (en) (VF : Jean Michaud) : John Mooney
 Michael D. Roberts : Vern
-Ralph Seymour[2] (VF : William Coryn) : Lenny
+Ralph Seymour (VF : William Coryn) : Lenny
 Lucinda Jenney (VF : Martine Meiraghe) : Iris
 Bonnie Hunt : Sally Dibbs
 Barry Levinson (VF : Jean-Pierre Moulin) : le docteur Murston (non crédité)
 Ray Baker (VF : Raoul Delfosse) : M. Kelso
-Kim Robillard[3] (VF : Jean-Luc Kayser) : le médecin généraliste dans la petite ville
-Bryon P. Cavnar[4] (VF : René Bériard) : l'homme bavard dans la salle d'attente</t>
+Kim Robillard (VF : Jean-Luc Kayser) : le médecin généraliste dans la petite ville
+Bryon P. Cavnar (VF : René Bériard) : l'homme bavard dans la salle d'attente</t>
         </is>
       </c>
     </row>
@@ -647,20 +665,16 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t xml:space="preserve">Genèse
-Le producteur Roger Birnbaum est le premier à donner son accord pour produire le film. Il l'a fait immédiatement après que Barry Morrow a écrit le scénario[réf. nécessaire]. En souvenir de cet appui, Birnbaum a reçu des remerciements spéciaux sur le générique de fin du film[5].
-Martin Brest est l'un des premiers réalisateurs envisagés pour mettre en scène le film mais, peu satisfait du scénario, il décide d'abandonner le projet. Steven Spielberg tente alors de relancer l'adaptation et travaille pendant plusieurs mois avec Ronald Bass sur un scénario, mais finit à son tour par jeter l'éponge, préférant se concentrer sur le troisième opus de ses aventures d'Indiana Jones[6].
-Le co-scénariste du film et initiateur du projet, Barry Morrow, est membre des associations suivantes : l'« Association of Retarded Citizens », la « National Association of Social Workers » et l'« Autism Society of America », prouvant ainsi son engagement personnel vis-à-vis des personnes en situation de handicap mental, et qu'il revendique dans certaines déclarations personnelles[7]. Il est donc curieux qu'il assimile handicap mental et syndrome d'Asperger.
-Le personnage de Raymond Babbitt est inspiré de Kim Peek[8], un Américain atteint du syndrome du savant.
-Choix des interprètes
-Pour le rôle de Charlie Babbit, dont le personnage était initialement âgé de 56 ans, Dustin Hoffman a d'abord été choisi avant que celui-ci n'obtienne le rôle de Raymond Babbit. Bill Murray, Robin Williams et Tom Hanks avaient aussi été envisagés, mais le personnage, rajeuni, fut attribué finalement à Tom Cruise.
-Pour le rôle de Raymond Babbit, les acteurs Jack Nicholson, Robert De Niro et Mel Gibson avaient été envisagés avant que Dustin Hoffman ne soit choisi.
-Dans le film, on peut découvrir à la fin la brève apparition de son réalisateur Barry Levinson, dans le rôle d'un médecin.
-Tournage
-Le tournage de Rain Man comprend neuf semaines sur place à Cincinnati et dans tout le nord du Kentucky[9]. D'autres parties du film ont été tournées dans le désert près de Palm Springs, en Californie[10].
-Bande originale
-La musique originale du film est composée par Hans Zimmer.
-Le film contient par ailleurs de nombreuses chansons non originales :
+          <t>Genèse</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le producteur Roger Birnbaum est le premier à donner son accord pour produire le film. Il l'a fait immédiatement après que Barry Morrow a écrit le scénario[réf. nécessaire]. En souvenir de cet appui, Birnbaum a reçu des remerciements spéciaux sur le générique de fin du film.
+Martin Brest est l'un des premiers réalisateurs envisagés pour mettre en scène le film mais, peu satisfait du scénario, il décide d'abandonner le projet. Steven Spielberg tente alors de relancer l'adaptation et travaille pendant plusieurs mois avec Ronald Bass sur un scénario, mais finit à son tour par jeter l'éponge, préférant se concentrer sur le troisième opus de ses aventures d'Indiana Jones.
+Le co-scénariste du film et initiateur du projet, Barry Morrow, est membre des associations suivantes : l'« Association of Retarded Citizens », la « National Association of Social Workers » et l'« Autism Society of America », prouvant ainsi son engagement personnel vis-à-vis des personnes en situation de handicap mental, et qu'il revendique dans certaines déclarations personnelles. Il est donc curieux qu'il assimile handicap mental et syndrome d'Asperger.
+Le personnage de Raymond Babbitt est inspiré de Kim Peek, un Américain atteint du syndrome du savant.
 </t>
         </is>
       </c>
@@ -686,15 +700,21 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Accueil</t>
+          <t>Production</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Accueil critique
-Rain Man rencontre un accueil critique majoritairement positif.
-Sur le site agrégateur de critiques Rotten Tomatoes, le film obtient un score de 89 % d'avis favorables, sur la base de 135 critiques collectées et une note moyenne de 8,10/10 ; le consensus du site indique : « Ce roadmovie au sujet d'un autiste savant et de son frère inexpérimenté est loin d'être homogène, mais la direction de Barry Levinson est impressionnante et les solides performances de Tom Cruise et Dustin Hoffman ajoutent à son attrait[11]. » Sur Metacritic, le film obtient une note moyenne pondérée de 65 sur 100, sur la base de 18 critiques collectées ; le consensus du site indique : « Acclamation générale » (Universal acclaim)[12].
-Box-office</t>
+          <t>Choix des interprètes</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pour le rôle de Charlie Babbit, dont le personnage était initialement âgé de 56 ans, Dustin Hoffman a d'abord été choisi avant que celui-ci n'obtienne le rôle de Raymond Babbit. Bill Murray, Robin Williams et Tom Hanks avaient aussi été envisagés, mais le personnage, rajeuni, fut attribué finalement à Tom Cruise.
+Pour le rôle de Raymond Babbit, les acteurs Jack Nicholson, Robert De Niro et Mel Gibson avaient été envisagés avant que Dustin Hoffman ne soit choisi.
+Dans le film, on peut découvrir à la fin la brève apparition de son réalisateur Barry Levinson, dans le rôle d'un médecin.
+</t>
         </is>
       </c>
     </row>
@@ -719,13 +739,131 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
+          <t>Production</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Tournage</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le tournage de Rain Man comprend neuf semaines sur place à Cincinnati et dans tout le nord du Kentucky. D'autres parties du film ont été tournées dans le désert près de Palm Springs, en Californie.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Rain_Man</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Handicap/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Rain_Man</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Production</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Bande originale</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La musique originale du film est composée par Hans Zimmer.
+Le film contient par ailleurs de nombreuses chansons non originales :
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Rain_Man</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Handicap/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Rain_Man</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Accueil</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Accueil critique</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Rain Man rencontre un accueil critique majoritairement positif.
+Sur le site agrégateur de critiques Rotten Tomatoes, le film obtient un score de 89 % d'avis favorables, sur la base de 135 critiques collectées et une note moyenne de 8,10/10 ; le consensus du site indique : « Ce roadmovie au sujet d'un autiste savant et de son frère inexpérimenté est loin d'être homogène, mais la direction de Barry Levinson est impressionnante et les solides performances de Tom Cruise et Dustin Hoffman ajoutent à son attrait. » Sur Metacritic, le film obtient une note moyenne pondérée de 65 sur 100, sur la base de 18 critiques collectées ; le consensus du site indique : « Acclamation générale » (Universal acclaim).
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Rain_Man</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Handicap/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Rain_Man</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
           <t>Distinctions</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>Récompenses
-Oscars 1989 :
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Récompenses</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>Oscars 1989 :
 Oscar du meilleur film
 Oscar du meilleur réalisateur pour Barry Levinson.
 Oscar du meilleur scénario original pour Ronald Bass et Barry Morrow.
@@ -733,9 +871,43 @@
 Golden Globes 1989 :
 Golden Globe du meilleur film dramatique
 Golden Globe du meilleur acteur dans un film dramatique pour Dustin Hoffman.
-Berlinale 1989 : Ours d'or
-Nominations
-Oscars 1989 :
+Berlinale 1989 : Ours d'or</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Rain_Man</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Handicap/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Rain_Man</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Distinctions</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Nominations</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>Oscars 1989 :
 nomination à l'Oscar de la meilleure direction artistique pour Ida Random (en) et Linda DeScenna.
 nomination à l'Oscar de la meilleure photographie pour John Seale.
 nomination à l'Oscar du meilleur montage pour Stu Linder.
@@ -751,74 +923,119 @@
         </is>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>Rain_Man</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>Portail:Handicap/Articles liés</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Rain_Man</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Rain_Man</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Handicap/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Rain_Man</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
         <is>
           <t>Analyse</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Syndrome d'Asperger
-Le film est souvent cité pour avoir mis en scène un personnage avec syndrome d'Asperger et a popularisé une erreur de compréhension de cette forme d'autisme auprès du grand public[13], notamment à travers l'image — erronée — du génie autiste[14]. Roselyne Bachelot note que « pour nombre de gens qui n'ont pas l'expérience de ce handicap, l'autisme correspond au syndrome d'Asperger, illustré par le personnage incarné par Dustin Hoffman dans le film Rain Man », ce qui ne leur permet pas de comprendre la situation de la majorité des autistes[15].
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Syndrome d'Asperger</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le film est souvent cité pour avoir mis en scène un personnage avec syndrome d'Asperger et a popularisé une erreur de compréhension de cette forme d'autisme auprès du grand public, notamment à travers l'image — erronée — du génie autiste. Roselyne Bachelot note que « pour nombre de gens qui n'ont pas l'expérience de ce handicap, l'autisme correspond au syndrome d'Asperger, illustré par le personnage incarné par Dustin Hoffman dans le film Rain Man », ce qui ne leur permet pas de comprendre la situation de la majorité des autistes.
 Le personnage incarné par Dustin Hoffman est souvent décrit comme ayant le syndrome d'Asperger mais, dans le film, le Dr Bruner ne fait mention que d'autisme.
-Le syndrome d'Asperger est un autisme sans déficience intellectuelle[16]. Raymond aurait donc le syndrome du savant. C'est pourquoi l'idée fausse que les personnes ayant le syndrome d'Asperger sont forcément savantes s'est répandue. Cette confusion est généralement considérée comme ayant porté préjudice à la perception que le grand public a du syndrome d'Asperger.
-Pour plusieurs personnes diagnostiquées Asperger, dont Daniel Tammet et Josef Schovanec, le personnage de Raymond, qui ne saurait être représentatif de la diversité du spectre de l'autisme, donne en outre une vision datée[17], caricaturale[18] et en partie inexacte[19] du syndrome qu'il présente.
-Titre du film au Québec
-Le titre québécois du film est L'homme de la pluie, ce qui peut sembler aller à l'encontre du scénario (en effet, dans la version originale, Charlie a construit le nom Rain man à partir de « Raymond ») mais, en un sens, les souvenirs qu'il garde de ce personnage (qu'il croit imaginaire), à travers ses yeux d'enfants, sont attachés au sens qu'ont ces mots (« l'homme de la pluie », un surnom enfantin pour un personnage imaginaire).[Interprétation personnelle ?]
+Le syndrome d'Asperger est un autisme sans déficience intellectuelle. Raymond aurait donc le syndrome du savant. C'est pourquoi l'idée fausse que les personnes ayant le syndrome d'Asperger sont forcément savantes s'est répandue. Cette confusion est généralement considérée comme ayant porté préjudice à la perception que le grand public a du syndrome d'Asperger.
+Pour plusieurs personnes diagnostiquées Asperger, dont Daniel Tammet et Josef Schovanec, le personnage de Raymond, qui ne saurait être représentatif de la diversité du spectre de l'autisme, donne en outre une vision datée, caricaturale et en partie inexacte du syndrome qu'il présente.
 </t>
         </is>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>Rain_Man</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>Portail:Handicap/Articles liés</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Rain_Man</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Rain_Man</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Portail:Handicap/Articles liés</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Rain_Man</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Analyse</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Titre du film au Québec</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le titre québécois du film est L'homme de la pluie, ce qui peut sembler aller à l'encontre du scénario (en effet, dans la version originale, Charlie a construit le nom Rain man à partir de « Raymond ») mais, en un sens, les souvenirs qu'il garde de ce personnage (qu'il croit imaginaire), à travers ses yeux d'enfants, sont attachés au sens qu'ont ces mots (« l'homme de la pluie », un surnom enfantin pour un personnage imaginaire).[Interprétation personnelle ?]
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Rain_Man</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Portail:Handicap/Articles liés</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Rain_Man</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
         <is>
           <t>Autour du film</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Version tronquée du film diffusée par les compagnies aériennes
-Au cours du mois de juin 1989, au moins quinze grandes compagnies aériennes internationales ont diffusé dans les avions de leurs compagnies des versions éditées du film Rain Man, qui omettaient la scène au cours de laquelle le personnage de Raymond Babbitt refuse de prendre un avion quand il mentionne les accidents aériens du Vol American Airlines 625 (1976), du Vol Delta Air Lines 191 (1985) et du Vol Continental Airlines 1713 (1987), mais qu'il indique qu'il n'y a jamais eu d'accidents chez Qantas, une compagnie basée en Australie[20],[21].
-Plusieurs personnes ont critiqué cette décision, notamment le réalisateur du film Barry Levinson, le co-scénariste Ronald Bass et George Kirgo qui, à l'époque, était le président de la Writers Guild of America, West. Lors d'une interview téléphonique, Barry Levinson a ainsi déclaré : « Je pense que c'est une scène clé pour tout le film [...] C'est pourquoi elle est là-dedans. Elle lance toute leur odyssée à travers le pays – parce qu'ils ne pouvaient pas prendre un vol »[20],[21].
-Alors que certaines des compagnies aériennes ayant effectué cette censure se sont défendues, affirmant agir ainsi pour éviter à leur passagers de se sentir mal durant la projection du film au cours d'un vol, les passagers prenant en sympathie le personnage de Raymond, la scène a été montrée intacte sur les vols de la compagnie Qantas ; les commentateurs ont noté que Raymond mentionne celle-ci comme la seule compagnie aérienne dont les avions ne se sont « jamais écrasés »[20],[21].
-Le film est aussi crédité pour avoir présenté le dossier de sécurité (Safety record) de la compagnie Qantas aux consommateurs américains[22],[23].
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Version tronquée du film diffusée par les compagnies aériennes</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Au cours du mois de juin 1989, au moins quinze grandes compagnies aériennes internationales ont diffusé dans les avions de leurs compagnies des versions éditées du film Rain Man, qui omettaient la scène au cours de laquelle le personnage de Raymond Babbitt refuse de prendre un avion quand il mentionne les accidents aériens du Vol American Airlines 625 (1976), du Vol Delta Air Lines 191 (1985) et du Vol Continental Airlines 1713 (1987), mais qu'il indique qu'il n'y a jamais eu d'accidents chez Qantas, une compagnie basée en Australie,.
+Plusieurs personnes ont critiqué cette décision, notamment le réalisateur du film Barry Levinson, le co-scénariste Ronald Bass et George Kirgo qui, à l'époque, était le président de la Writers Guild of America, West. Lors d'une interview téléphonique, Barry Levinson a ainsi déclaré : « Je pense que c'est une scène clé pour tout le film [...] C'est pourquoi elle est là-dedans. Elle lance toute leur odyssée à travers le pays – parce qu'ils ne pouvaient pas prendre un vol »,.
+Alors que certaines des compagnies aériennes ayant effectué cette censure se sont défendues, affirmant agir ainsi pour éviter à leur passagers de se sentir mal durant la projection du film au cours d'un vol, les passagers prenant en sympathie le personnage de Raymond, la scène a été montrée intacte sur les vols de la compagnie Qantas ; les commentateurs ont noté que Raymond mentionne celle-ci comme la seule compagnie aérienne dont les avions ne se sont « jamais écrasés »,.
+Le film est aussi crédité pour avoir présenté le dossier de sécurité (Safety record) de la compagnie Qantas aux consommateurs américains,.
 </t>
         </is>
       </c>
